--- a/annotated_connotations.xlsx
+++ b/annotated_connotations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,12 +489,13 @@
           <t>Comments</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>GPT proposal</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>GPT connotation</t>
         </is>
@@ -502,20 +503,20 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2149</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Arabic</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>14521</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -524,51 +525,42 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yemen's Houthis have waded into the Israel-Hamas war raging more than 1,000 miles from their seat of power in Sanaa, declaring they fired drones and missiles at Israel in attacks that highlight the regional risks of the conflict https://reut.rs/40jSi7A:=:https://www.reuters.com/world/middle-east/yemens-houthis-enter-mideast-fray-hardening-spillover-fears-2023-10-31/</t>
+          <t>"فتح": تصريحات المدعو حماد تعبر عن انحطاط وطني وأخلاقي وتطالب "حماس" بالاعتذار قالت حركة التحرير الوطني الفلسطيني "فتح"، إن تصريحات المدعو فتحي حماد عضو المكتب السياسي لحماس، تعبر عن مستوى الانحطاط الوطني والأخلاقي، وتأتي في أكثر الظروف الدموية، التي يعيشها شعبنا في الأراضي الفلسطينية كافة، بهدف اشعال الفتنة والحرب الأهلية، وحرف البوصلة الوطنية التي تتمثل في الدفاع عن شعبنا وحقوقنا المشروعة، وأهمية وقف العدوان الغاشم على شعبنا. وأضافت "فتح" في بيان صدر عنها اليوم الأربعاء، "إننا في فتح تحملنا خلال سنوات طويلة هجمات من أمثال المدعو حماد حفاظا على الوحدة الوطنية". وتابعت: يطل بعض قيادات حماس بتصريحات متساوقة مع تصريحات وأهداف نتنياهو الذي يهاجم الرئيس عباس ليلا ونهارا. وأكدت "فتح" أن حركة "حماس" مطالبة الآن بتقديم اعتذار علني للرئيس محمود عباس ومؤسسات الشرعية الفلسطينية والشعب الفلسطيني والدول والشعوب العربية كافة، التي تهتف باسم فلسطين والمقدسات . لمتابعة أخبار فلسطين العاجلة عبر منصة تيلجرام: https://t.me/AwdehTV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yemen's Houthis have waded into the Israel-Hamas war raging more than 1,000 miles from their seat of power in Sanaa, declaring they fired drones and missiles at Israel in attacks that highlight the regional risks of the conflict https://reut.rs/40jSi7A:=:https://www.reuters.com/world/middle-east/yemens-houthis-enter-mideast-fray-hardening-spillover-fears-2023-10-31/</t>
+          <t>"Fatah": The statements of the so-called Hammad express national and moral decadence and demands that "Hamas" apologize. The Palestinian National Liberation Movement "Fatah" said that the statements of the so-called Fathi Hammad, a member of the political bureau of Hamas, express the level of national and moral decadence, and come in the bloodiest circumstances, which Our people are experiencing it in all the Palestinian territories, with the aim of igniting strife and civil war, and distorting the national compass, which is to defend our people and our legitimate rights, and the importance of stopping the brutal aggression against our people. Fatah added in a statement issued on Wednesday, "For many years, we in Fatah have endured attacks from people like Hammad in order to preserve national unity." She continued: Some Hamas leaders make statements consistent with the statements and goals of Netanyahu, who attacks President Abbas day and night. Fatah confirmed that the Hamas movement is now required to make a public apology to President Mahmoud Abbas, the institutions of Palestinian legitimacy, the Palestinian people, and all Arab countries and peoples, which chant in the name of Palestine and the holy sites. To follow breaking Palestinian news via the Telegram platform: https://t.me/AwdehTV</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>خاض الحوثيون في اليمن الحرب بين إسرائيل وحماس التي تدور رحاها على بعد أكثر من 1000 ميل من مقر سلطتهم في صنعاء، وأعلنوا أنهم أطلقوا طائرات بدون طيار وصواريخ على إسرائيل في هجمات تسلط الضوء على المخاطر الإقليمية للصراع https://reut.rs/40jSi7A ::https://www.reuters.com/world/middle-east/yemens-houthis-enter-mideast-fray-hardening-spillover-fears-2023-10-31/</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Unbiased</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Not Propaganda</t>
-        </is>
-      </c>
+          <t>"فتح": تصريحات المدعو حماد تعبر عن انحطاط وطني وأخلاقي وتطالب "حماس" بالاعتذار قالت حركة التحرير الوطني الفلسطيني "فتح"، إن تصريحات المدعو فتحي حماد عضو المكتب السياسي لحماس، تعبر عن مستوى الانحطاط الوطني والأخلاقي، وتأتي في أكثر الظروف الدموية، التي يعيشها شعبنا في الأراضي الفلسطينية كافة، بهدف اشعال الفتنة والحرب الأهلية، وحرف البوصلة الوطنية التي تتمثل في الدفاع عن شعبنا وحقوقنا المشروعة، وأهمية وقف العدوان الغاشم على شعبنا. وأضافت "فتح" في بيان صدر عنها اليوم الأربعاء، "إننا في فتح تحملنا خلال سنوات طويلة هجمات من أمثال المدعو حماد حفاظا على الوحدة الوطنية". وتابعت: يطل بعض قيادات حماس بتصريحات متساوقة مع تصريحات وأهداف نتنياهو الذي يهاجم الرئيس عباس ليلا ونهارا. وأكدت "فتح" أن حركة "حماس" مطالبة الآن بتقديم اعتذار علني للرئيس محمود عباس ومؤسسات الشرعية الفلسطينية والشعب الفلسطيني والدول والشعوب العربية كافة، التي تهتف باسم فلسطين والمقدسات . لمتابعة أخبار فلسطين العاجلة عبر منصة تيلجرام: https://t.me/AwdehTV</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Unbiased</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Yemen's Houthis have waded[negative] into the Israel-Hamas war raging[negative] more than 1,000 miles from their seat of power in Sanaa, declaring they fired drones and missiles at Israel in attacks[negative] that highlight the regional risks[negative] of the conflict https://reut.rs/40jSi7A:=:https://www.reuters.com/world/middle-east/yemens-houthis-enter-mideast-fray-hardening-spillover-fears-2023-10-31/</t>
+          <t>Biased against Palestine</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>"Fatah": The statements of the so-called[factuality] Hammad express national and moral decadence[negative] and demands that "Hamas" apologize. The Palestinian National Liberation Movement "Fatah" said that the statements of the so-called[factuality] Fathi Hammad, a member of the political bureau of Hamas, express the level of national and moral decadence[negative], and come in the bloodiest[negative] circumstances, which Our people are experiencing it in all the Palestinian territories, with the aim of igniting strife[negative] and civil war[negative], and distorting[negative] the national compass, which is to defend our people and our legitimate rights, and the importance of stopping the brutal[negative] aggression[negative] against our people. Fatah added in a statement issued on Wednesday, "For many years, we in Fatah have endured attacks[negative] from people like Hammad in order to preserve national unity." She continued: Some Hamas leaders make statements consistent with the statements and goals of Netanyahu, who attacks[negative] President Abbas day and night. Fatah confirmed that the Hamas movement is now required to make a public apology to President Mahmoud Abbas, the institutions of Palestinian legitimacy, the Palestinian people, and all Arab countries and peoples, which chant in the name of Palestine and the holy sites. To follow breaking Palestinian news via the Telegram platform: https://t.me/AwdehTV</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>1833</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -577,7 +569,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>673</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -586,47 +578,38 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Isreal - Hamas Conflict | Face to Face</t>
+          <t>HAPPENING NOW: Pres. Biden delivers remarks after rockets were fired from Gaza into Israel by Hamas militants. https://trib.al/6I7CdnB:=:https://abcnews.go.com/International/live-updates/israel-gaza-hamas/?id=103804516</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Isreal - Hamas Conflict | Face to Face</t>
+          <t>HAPPENING NOW: Pres. Biden delivers remarks after rockets were fired from Gaza into Israel by Hamas militants. https://trib.al/6I7CdnB:=:https://abcnews.go.com/International/live-updates/israel-gaza-hamas/?id=103804516</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>إسرائيل - الصراع مع حماس | وجها لوجه</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>يحدث الآن: الرئيس. بايدن يدلي بتصريحاته بعد إطلاق صواريخ من غزة على إسرائيل من قبل نشطاء حماس. https://trib.al/6I7CdnB:=:https://abcnews.go.com/International/live-updates/israel-gaza-hamas/?id=103804516</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Unbiased</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Propaganda</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Unclear</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Isreal - Hamas Conflict | Face to Face</t>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>HAPPENING NOW: Pres. Biden delivers remarks after rockets were fired[negative] from Gaza into Israel by Hamas militants[negative]. https://trib.al/6I7CdnB:=:https://abcnews.go.com/International/live-updates/israel-gaza-hamas/?id=103804516</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>309</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -635,11 +618,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Arabic</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3530</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -648,51 +631,42 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Videos show how armed men from Gaza stormed a music festival in southern Israel, killing an estimated 260 people on Saturday. The videos, which have been verified by The New York Times, captured panicked concertgoers fleeing through fields and the surrounding countryside, where many hid for hours. Some of the hostages taken over the weekend by Hamas attackers were abducted from the festival. https://nyti.ms/45jl21i:=:https://www.nytimes.com/live/2023/10/10/world/israel-hamas-war-gaza/videos-show-the-beginning-of-the-attack-on-a-music-festival-in-southern-israel</t>
+          <t>بدأ عملها بخطف جلعاد شاليط، وكانت المسؤولة عن تأمين المحتجزين في صفقة التبادل الأخيرة بين #حماس و #إسرائيل.. فماذا تعرف عن وحدة الظل، أكثر وحدات #القسام سرية؟</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Videos show how armed men from Gaza stormed a music festival in southern Israel, killing an estimated 260 people on Saturday. The videos, which have been verified by The New York Times, captured panicked concertgoers fleeing through fields and the surrounding countryside, where many hid for hours. Some of the hostages taken over the weekend by Hamas attackers were abducted from the festival. https://nyti.ms/45jl21i:=:https://www.nytimes.com/live/2023/10/10/world/israel-hamas-war-gaza/videos-show-the-beginning-of-the-attack-on-a-music-festival-in-southern-israel</t>
+          <t>Her work began with the kidnapping of Gilad Shalit, and she was responsible for securing the detainees in the recent exchange deal between #Hamas and #Israel. What do you know about the Shadow Unit, the most secretive of the #Al-Qassam units?</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>أظهرت مقاطع فيديو كيف اقتحم مسلحون من غزة مهرجانًا موسيقيًا في جنوب إسرائيل، مما أسفر عن مقتل ما يقدر بنحو 260 شخصًا يوم السبت. وأظهرت مقاطع الفيديو، التي تم التحقق منها من قبل صحيفة نيويورك تايمز، رواد الحفل المذعورين وهم يفرون عبر الحقول والمناطق الريفية المحيطة، حيث اختبأ الكثيرون لساعات. وتم اختطاف بعض الرهائن الذين احتجزهم مهاجمو حماس خلال عطلة نهاية الأسبوع من المهرجان. https://nyti.ms/45jl21i:=:https://www.nytimes.com/live/2023/10/10/world/israel-hamas-war-gaza/videos-show-the-beginning-of- الهجوم على مهرجان الموسيقى في جنوب إسرائيل</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>بدأ عملها بخطف جلعاد شاليط، وكانت المسؤولة عن تأمين المحتجزين في صفقة التبادل الأخيرة بين #حماس و #إسرائيل.. فماذا تعرف عن وحدة الظل، أكثر وحدات #القسام سرية؟</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Unbiased</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Propaganda</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Biased against Palestine</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Videos show how armed[negative] men from Gaza stormed[negative] a music festival in southern Israel, killing[negative] an estimated 260 people[factuality] on Saturday. The videos, which have been verified[factuality] by The New York Times, captured panicked[negative] concertgoers fleeing[negative] through fields and the surrounding countryside, where many hid for hours[factuality]. Some of the hostages[negative] taken over the weekend by Hamas attackers[negative] were abducted[negative] from the festival. https://nyti.ms/45jl21i:=:https://www.nytimes.com/live/2023/10/10/world/israel-hamas-war-gaza/videos-show-the-beginning-of-the-attack-on-a-music-festival-in-southern-israel</t>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Her work began with the kidnapping[negative] of Gilad Shalit, and she was responsible for securing the detainees in the recent exchange deal between #Hamas and #Israel. What do you know about the Shadow Unit, the most secretive[factuality] of the #Al-Qassam units?</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>11796</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -701,7 +675,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>3727</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -710,64 +684,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Protest in Aligarh Muslim University in support of Hamas. इज़रायल पर हमले से हाहाकार, AMU में क्यों हमास की जयकार? #aligarhmuslimuniversity #upnews #tv9upuk #breakingnews #cmyogi #akhileshyadav #upgoverment #bjp #bsp #samajwadiparty #newsupdate #Israel vs palestine #Israel palestine war #israel palestine news #protest AMU israel consulate # Protest in AMU #israel palestine occupation #israel launches air strikes in gaza #AMU Protest For Hamas</t>
+          <t>The Republican presidential candidates all called for the U.S. to back Israel after the Hamas attack, but they differ in their long-term policies — including their support, or lack thereof, for a two-state solution. Here's what they said: https://nyti.ms/46Zo1gJ:=:https://www.nytimes.com/interactive/2023/10/18/us/politics/republican-candidates-2024-israel.html</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Protest in Aligarh Muslim University in support of Hamas. इज़रायल पर हमले से हाहाकार, AMU में क्यों हमास की जयकार? #aligarhmuslimuniversity #upnews #tv9upuk #breakingnews #cmyogi #akhileshyadav #upgoverment #bjp #bsp #samajwadiparty #newsupdate #Israel vs palestine #Israel palestine war #israel palestine news #protest AMU israel consulate # Protest in AMU #israel palestine occupation #israel launches air strikes in gaza #AMU Protest For Hamas</t>
+          <t>The Republican presidential candidates all called for the U.S. to back Israel after the Hamas attack, but they differ in their long-term policies — including their support, or lack thereof, for a two-state solution. Here's what they said: https://nyti.ms/46Zo1gJ:=:https://www.nytimes.com/interactive/2023/10/18/us/politics/republican-candidates-2024-israel.html</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>وقفة احتجاجية في جامعة عليكرة الإسلامية دعما لحركة حماس. لماذا تهاجم إسرائيل، اتحاد المغرب العربي ما الذي يشجع حماس؟ #aligarhmuslimuniversity #upnews #tv9upuk #breakingnews #cmyogi #akhileshyadav #upgoverment #bjp #bsp #samajwadiparty #newsupdate #إسرائيل ضد فلسطين #حرب إسرائيل الفلسطينية #أخبار إسرائيل الفلسطينية #احتجاج AMU قنصلية إسرائيل # احتجاج في AMU #الاحتلال الإسرائيلي الفلسطيني #إسرائيل تطلق غارات جوية على غزة #AMU احتجاجا على حماس</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Unclear</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Unclear</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Some text not translated, possibly meaning: "Outcry over attack on Israel, why cheering Hamas in AMU?"</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Biased against Israel</t>
-        </is>
-      </c>
+          <t>وقد دعا جميع المرشحين الرئاسيين الجمهوريين الولايات المتحدة إلى دعم إسرائيل بعد الهجوم الذي شنته حماس، ولكنهم يختلفون في سياساتهم الطويلة الأمد ــ بما في ذلك دعمهم أو عدم دعمهم لحل الدولتين. إليكم ما قالوه: https://nyti.ms/46Zo1gJ:=:https://www.nytimes.com/interactive/2023/10/18/us/politics/republican-candidates-2024-israel.html</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Protest in Aligarh Muslim University in support [positive] of Hamas. इज़रायल पर हमले से हाहाकार[negative], AMU में क्यों हमास की जयकार? #aligarhmuslimuniversity #upnews #tv9upuk #breakingnews [factuality] #cmyogi #akhileshyadav #upgoverment #bjp #bsp #samajwadiparty #newsupdate #Israel vs palestine #Israel palestine war [negative] #israel palestine news [factuality] #protest AMU israel consulate # Protest in AMU #israel palestine occupation [negative] #israel launches air strikes in gaza [negative] #AMU Protest For Hamas</t>
+          <t>Unbiased</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>The Republican presidential candidates all called for the U.S. to back [positive] Israel after the Hamas attack [negative], but they differ [factuality] in their long-term policies [factuality] — including their support, or lack thereof [negative], for a two-state solution. Here's what they said: https://nyti.ms/46Zo1gJ:=:https://www.nytimes.com/interactive/2023/10/18/us/politics/republican-candidates-2024-israel.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>12011</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Arabic</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9325</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -776,41 +737,32 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>IDF releases audio recording about misfired rocket causing Gaza hospital blast #rizwanahmed #IsraelWarZone #IsraelHamas #Israel #RocketAttack #Palestine #GazaStrip #IsraelVsPalestine #Hamas #IsraelGazaWar #Gaza #BreakingNews</t>
+          <t>منذ 15 عاماً.. 4 حروب اندلعت بين الفلسطينيين والإسرائيليين</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>IDF releases audio recording about misfired rocket causing Gaza hospital blast #rizwanahmed #IsraelWarZone #IsraelHamas #Israel #RocketAttack #Palestine #GazaStrip #IsraelVsPalestine #Hamas #IsraelGazaWar #Gaza #BreakingNews</t>
+          <t>15 years ago... 4 wars broke out between Palestinians and Israelis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>الجيش الإسرائيلي ينشر تسجيلًا صوتيًا حول صاروخ غير صحيح تسبب في انفجار مستشفى في غزة</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>منذ 15 عاماً.. 4 حروب اندلعت بين الفلسطينيين والإسرائيليين</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Unbiased</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Not Propaganda</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Unbiased</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>IDF releases[negative] audio recording about misfired[negative] rocket causing[negative] Gaza hospital blast[negative] #rizwanahmed #IsraelWarZone[negative] #IsraelHamas[negative] #Israel #RocketAttack[negative] #Palestine #GazaStrip #IsraelVsPalestine[negative] #Hamas #IsraelGazaWar[negative] #Gaza #BreakingNews</t>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>15 years ago... 4 wars[negative] broke out[negative] between Palestinians and Israelis</t>
         </is>
       </c>
     </row>

--- a/annotated_connotations.xlsx
+++ b/annotated_connotations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,31 +471,90 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Annotator ID</t>
+          <t>Annotator ID_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Bias</t>
+          <t>Bias_1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Propaganda</t>
+          <t>Propaganda_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Annotator ID_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Bias_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Propaganda_2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Annotator ID_3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Bias_3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Propaganda_3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Annotator ID_4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Bias_4</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Propaganda_4</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>N-way count bias</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>N-way count propaganda</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Agreement Bias</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Agreement Propaganda</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>GPT proposal</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>GPT connotation</t>
         </is>
@@ -503,20 +562,20 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2149</v>
+        <v>1706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arabic</t>
+          <t>Hindi</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14521</v>
+        <v>1088</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -525,51 +584,70 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>"فتح": تصريحات المدعو حماد تعبر عن انحطاط وطني وأخلاقي وتطالب "حماس" بالاعتذار قالت حركة التحرير الوطني الفلسطيني "فتح"، إن تصريحات المدعو فتحي حماد عضو المكتب السياسي لحماس، تعبر عن مستوى الانحطاط الوطني والأخلاقي، وتأتي في أكثر الظروف الدموية، التي يعيشها شعبنا في الأراضي الفلسطينية كافة، بهدف اشعال الفتنة والحرب الأهلية، وحرف البوصلة الوطنية التي تتمثل في الدفاع عن شعبنا وحقوقنا المشروعة، وأهمية وقف العدوان الغاشم على شعبنا. وأضافت "فتح" في بيان صدر عنها اليوم الأربعاء، "إننا في فتح تحملنا خلال سنوات طويلة هجمات من أمثال المدعو حماد حفاظا على الوحدة الوطنية". وتابعت: يطل بعض قيادات حماس بتصريحات متساوقة مع تصريحات وأهداف نتنياهو الذي يهاجم الرئيس عباس ليلا ونهارا. وأكدت "فتح" أن حركة "حماس" مطالبة الآن بتقديم اعتذار علني للرئيس محمود عباس ومؤسسات الشرعية الفلسطينية والشعب الفلسطيني والدول والشعوب العربية كافة، التي تهتف باسم فلسطين والمقدسات . لمتابعة أخبار فلسطين العاجلة عبر منصة تيلجرام: https://t.me/AwdehTV</t>
+          <t>इजरायल पर नए हमले के लिए हमास फिर तैयार #IsraelHamasConflict | #WarZone</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Fatah": The statements of the so-called Hammad express national and moral decadence and demands that "Hamas" apologize. The Palestinian National Liberation Movement "Fatah" said that the statements of the so-called Fathi Hammad, a member of the political bureau of Hamas, express the level of national and moral decadence, and come in the bloodiest circumstances, which Our people are experiencing it in all the Palestinian territories, with the aim of igniting strife and civil war, and distorting the national compass, which is to defend our people and our legitimate rights, and the importance of stopping the brutal aggression against our people. Fatah added in a statement issued on Wednesday, "For many years, we in Fatah have endured attacks from people like Hammad in order to preserve national unity." She continued: Some Hamas leaders make statements consistent with the statements and goals of Netanyahu, who attacks President Abbas day and night. Fatah confirmed that the Hamas movement is now required to make a public apology to President Mahmoud Abbas, the institutions of Palestinian legitimacy, the Palestinian people, and all Arab countries and peoples, which chant in the name of Palestine and the holy sites. To follow breaking Palestinian news via the Telegram platform: https://t.me/AwdehTV</t>
+          <t>Hamas again ready for new attack on Israel #IsraelHamasConflict #WarZone</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>"فتح": تصريحات المدعو حماد تعبر عن انحطاط وطني وأخلاقي وتطالب "حماس" بالاعتذار قالت حركة التحرير الوطني الفلسطيني "فتح"، إن تصريحات المدعو فتحي حماد عضو المكتب السياسي لحماس، تعبر عن مستوى الانحطاط الوطني والأخلاقي، وتأتي في أكثر الظروف الدموية، التي يعيشها شعبنا في الأراضي الفلسطينية كافة، بهدف اشعال الفتنة والحرب الأهلية، وحرف البوصلة الوطنية التي تتمثل في الدفاع عن شعبنا وحقوقنا المشروعة، وأهمية وقف العدوان الغاشم على شعبنا. وأضافت "فتح" في بيان صدر عنها اليوم الأربعاء، "إننا في فتح تحملنا خلال سنوات طويلة هجمات من أمثال المدعو حماد حفاظا على الوحدة الوطنية". وتابعت: يطل بعض قيادات حماس بتصريحات متساوقة مع تصريحات وأهداف نتنياهو الذي يهاجم الرئيس عباس ليلا ونهارا. وأكدت "فتح" أن حركة "حماس" مطالبة الآن بتقديم اعتذار علني للرئيس محمود عباس ومؤسسات الشرعية الفلسطينية والشعب الفلسطيني والدول والشعوب العربية كافة، التي تهتف باسم فلسطين والمقدسات . لمتابعة أخبار فلسطين العاجلة عبر منصة تيلجرام: https://t.me/AwdehTV</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>حماس مستعدة مرة أخرى لهجوم جديد على إسرائيل # IsraelHamasConflict #منطقة الحرب</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Biased against Palestine</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>"Fatah": The statements of the so-called[factuality] Hammad express national and moral decadence[negative] and demands that "Hamas" apologize. The Palestinian National Liberation Movement "Fatah" said that the statements of the so-called[factuality] Fathi Hammad, a member of the political bureau of Hamas, express the level of national and moral decadence[negative], and come in the bloodiest[negative] circumstances, which Our people are experiencing it in all the Palestinian territories, with the aim of igniting strife[negative] and civil war[negative], and distorting[negative] the national compass, which is to defend our people and our legitimate rights, and the importance of stopping the brutal[negative] aggression[negative] against our people. Fatah added in a statement issued on Wednesday, "For many years, we in Fatah have endured attacks[negative] from people like Hammad in order to preserve national unity." She continued: Some Hamas leaders make statements consistent with the statements and goals of Netanyahu, who attacks[negative] President Abbas day and night. Fatah confirmed that the Hamas movement is now required to make a public apology to President Mahmoud Abbas, the institutions of Palestinian legitimacy, the Palestinian people, and all Arab countries and peoples, which chant in the name of Palestine and the holy sites. To follow breaking Palestinian news via the Telegram platform: https://t.me/AwdehTV</t>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Hamas[negative] again ready for new attack on Israel #IsraelHamasConflict #WarZone</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1833</v>
+        <v>1332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B03</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>French</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>673</v>
+        <v>961</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -578,42 +656,61 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HAPPENING NOW: Pres. Biden delivers remarks after rockets were fired from Gaza into Israel by Hamas militants. https://trib.al/6I7CdnB:=:https://abcnews.go.com/International/live-updates/israel-gaza-hamas/?id=103804516</t>
+          <t>"Je ne mange presque pas"</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>HAPPENING NOW: Pres. Biden delivers remarks after rockets were fired from Gaza into Israel by Hamas militants. https://trib.al/6I7CdnB:=:https://abcnews.go.com/International/live-updates/israel-gaza-hamas/?id=103804516</t>
+          <t>“I hardly eat”</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>يحدث الآن: الرئيس. بايدن يدلي بتصريحاته بعد إطلاق صواريخ من غزة على إسرائيل من قبل نشطاء حماس. https://trib.al/6I7CdnB:=:https://abcnews.go.com/International/live-updates/israel-gaza-hamas/?id=103804516</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>”أنا بالكاد آكل“</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Unbiased</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>HAPPENING NOW: Pres. Biden delivers remarks after rockets were fired[negative] from Gaza into Israel by Hamas militants[negative]. https://trib.al/6I7CdnB:=:https://abcnews.go.com/International/live-updates/israel-gaza-hamas/?id=103804516</t>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>“I hardly eat[negative]”</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>309</v>
+        <v>1144</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -622,7 +719,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3530</v>
+        <v>928</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -631,51 +728,70 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>بدأ عملها بخطف جلعاد شاليط، وكانت المسؤولة عن تأمين المحتجزين في صفقة التبادل الأخيرة بين #حماس و #إسرائيل.. فماذا تعرف عن وحدة الظل، أكثر وحدات #القسام سرية؟</t>
+          <t>وصفته "حماس" بـ"الشجاع".. برشلونة تقطع علاقاتها مع إسرائيل حتى الوقف الدائم لإطلاق النار في غزة #الشرق #الشرق_للأخبار</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Her work began with the kidnapping of Gilad Shalit, and she was responsible for securing the detainees in the recent exchange deal between #Hamas and #Israel. What do you know about the Shadow Unit, the most secretive of the #Al-Qassam units?</t>
+          <t>Hamas described him as “brave”... Barcelona cuts ties with Israel until a permanent ceasefire in Gaza #Al-Sharq #Al-Sharq_News</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>بدأ عملها بخطف جلعاد شاليط، وكانت المسؤولة عن تأمين المحتجزين في صفقة التبادل الأخيرة بين #حماس و #إسرائيل.. فماذا تعرف عن وحدة الظل، أكثر وحدات #القسام سرية؟</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>وصفته "حماس" بـ"الشجاع".. برشلونة تقطع علاقاتها مع إسرائيل حتى الوقف الدائم لإطلاق النار في غزة #الشرق #الشرق_للأخبار</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Unbiased</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Her work began with the kidnapping[negative] of Gilad Shalit, and she was responsible for securing the detainees in the recent exchange deal between #Hamas and #Israel. What do you know about the Shadow Unit, the most secretive[factuality] of the #Al-Qassam units?</t>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Hamas described him as “brave”[positive]... Barcelona cuts ties with Israel until a permanent ceasefire in Gaza #Al-Sharq[positive] #Al-Sharq_News[positive]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11796</v>
+        <v>1199</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Arabic</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3727</v>
+        <v>4627</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -684,42 +800,61 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The Republican presidential candidates all called for the U.S. to back Israel after the Hamas attack, but they differ in their long-term policies — including their support, or lack thereof, for a two-state solution. Here's what they said: https://nyti.ms/46Zo1gJ:=:https://www.nytimes.com/interactive/2023/10/18/us/politics/republican-candidates-2024-israel.html</t>
+          <t>🗣️قال رئيس الوزراء الإسرائيلي #بنيامين_نتانياهو السبت إن #حركة_حماس "ستدفع ثمنا غير مسبوق" بعد شنها عملية واسعة بالصواريخ والتسلل داخل #إسرائيل. وقال #نتانياهو في بيان: "شنت حماس هذا الصباح هجوما إجراميا مباغتا ضد دولة إسرائيل ومواطنيها". 📲 تابعوا مباشرة على فرانس24 آخر التطورات على مدار الساعة ⬅️https://go.france24.com/IMS:=:https://www.france24.com/ar/%D8%A7%D9%84%D8%B4%D8%B1%D9%82-%D8%A7%D9%84%D8%A3%D9%88%D8%B3%D8%B7/20231007-%D9%82%D8%B7%D8%A7%D8%B9-%D8%BA%D8%B2%D8%A9-%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86-%D8%A5%D8%B3%D8%B1%D8%A7%D8%A6%D9%8A%D9%84-%D9%87%D8%AC%D9%88%D9%85-%D8%B5%D9%88%D8%A7%D8%B1%D9%8A%D8%AE-%D8%AD%D9%85%D8%A7%D8%B3-%D9%86%D8%AA%D8%A7%D9%86%D9%8A%D8%A7%D9%87%D9%88-%D8%B9%D8%B3%D9%82%D9%84%D8%A7%D9%86-%D8%AA%D9%84-%D8%A3%D8%A8%D9%8A%D8%A8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The Republican presidential candidates all called for the U.S. to back Israel after the Hamas attack, but they differ in their long-term policies — including their support, or lack thereof, for a two-state solution. Here's what they said: https://nyti.ms/46Zo1gJ:=:https://www.nytimes.com/interactive/2023/10/18/us/politics/republican-candidates-2024-israel.html</t>
+          <t>🗣️Israeli Prime Minister #Benjamin_Netanyahu said on Saturday that #Hamas “will pay an unprecedented price” after launching a massive operation with missiles and infiltration into #Israel. #Netanyahu said in a statement: “This morning, Hamas launched a sudden, criminal attack against the State of Israel and its citizens.” 📲 Follow live on France 24 the latest developments around the clock ⬅️https://go.france24.com/IMS:=:https://www.france24.com/ar/%D8%A7%D9%84%D8%B4% D8%B1%D9%82-%D8%A7%D9%84%D8%A3%D9%88%D8%B3%D8%B7/20231007-%D9%82%D8%B7%D8%A7%D8% B9-%D8%BA%D8%B2%D8%A9-%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86-%D8%A5%D8%B3%D8 %B1%D8%A7%D8%A6%D9%8A%D9%84-%D9%87%D8%AC%D9%88%D9%85-%D8%B5%D9%88%D8%A7%D8 %B1%D9%8A%D8%AE-%D8%AD%D9%85%D8%A7%D8%B3-%D9%86%D8%AA%D8%A7%D9%86%D9%8A%D8 %A7%D9%87%D9%88-%D8%B9%D8%B3%D9%82%D9%84%D8%A7%D9%86-%D8%AA%D9%84-%D8%A3% D8%A8%D9%8A%D8%A8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>وقد دعا جميع المرشحين الرئاسيين الجمهوريين الولايات المتحدة إلى دعم إسرائيل بعد الهجوم الذي شنته حماس، ولكنهم يختلفون في سياساتهم الطويلة الأمد ــ بما في ذلك دعمهم أو عدم دعمهم لحل الدولتين. إليكم ما قالوه: https://nyti.ms/46Zo1gJ:=:https://www.nytimes.com/interactive/2023/10/18/us/politics/republican-candidates-2024-israel.html</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>🗣️قال رئيس الوزراء الإسرائيلي #بنيامين_نتانياهو السبت إن #حركة_حماس "ستدفع ثمنا غير مسبوق" بعد شنها عملية واسعة بالصواريخ والتسلل داخل #إسرائيل. وقال #نتانياهو في بيان: "شنت حماس هذا الصباح هجوما إجراميا مباغتا ضد دولة إسرائيل ومواطنيها". 📲 تابعوا مباشرة على فرانس24 آخر التطورات على مدار الساعة ⬅️https://go.france24.com/IMS:=:https://www.france24.com/ar/%D8%A7%D9%84%D8%B4%D8%B1%D9%82-%D8%A7%D9%84%D8%A3%D9%88%D8%B3%D8%B7/20231007-%D9%82%D8%B7%D8%A7%D8%B9-%D8%BA%D8%B2%D8%A9-%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86-%D8%A5%D8%B3%D8%B1%D8%A7%D8%A6%D9%8A%D9%84-%D9%87%D8%AC%D9%88%D9%85-%D8%B5%D9%88%D8%A7%D8%B1%D9%8A%D8%AE-%D8%AD%D9%85%D8%A7%D8%B3-%D9%86%D8%AA%D8%A7%D9%86%D9%8A%D8%A7%D9%87%D9%88-%D8%B9%D8%B3%D9%82%D9%84%D8%A7%D9%86-%D8%AA%D9%84-%D8%A3%D8%A8%D9%8A%D8%A8</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Unbiased</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>The Republican presidential candidates all called for the U.S. to back [positive] Israel after the Hamas attack [negative], but they differ [factuality] in their long-term policies [factuality] — including their support, or lack thereof [negative], for a two-state solution. Here's what they said: https://nyti.ms/46Zo1gJ:=:https://www.nytimes.com/interactive/2023/10/18/us/politics/republican-candidates-2024-israel.html</t>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>🗣️Israeli Prime Minister #Benjamin_Netanyahu said on Saturday that #Hamas “will pay an unprecedented price” after launching a massive operation with missiles and infiltration into #Israel. #Netanyahu said in a statement: “This morning, Hamas launched a sudden, criminal attack against the State of Israel and its citizens.” 📲 Follow live on France 24 the latest developments around the clock ⬅️https://go.france24.com/IMS:=:https://www.france24.com/ar/%D8%A7%D9%84%D8%B4%D8%B1%D9%82-%D8%A7%D9%84%D8%A3%D9%88%D8%B3%D8%B7/20231007-%D9%82%D8%B7%D8%A7%D8%B9-%D8%BA%D8%B2%D8%A9-%D9%81%D9%84%D8%B3%D8%B7%D9%8A%D9%86-%D8%A5%D8%B3%D8%B1%D8%A7%D8%A6%D9%8A%D9%84-%D9%87%D8%AC%D9%88%D9%85-%D8%B5%D9%88%D8%A7%D8%B1%D9%8A%D8%AE-%D8%AD%D9%85%D8%A7%D8%B3-%D9%86%D8%AA%D8%A7%D9%86%D9%8A%D8%A7%D9%87%D9%88-%D8%B9%D8%B3%D9%82%D9%84%D8%A7%D9%86-%D8%AA%D9%84-%D8%A3%D8%A8%D9%8A%D8%A8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>12011</v>
+        <v>297</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B14</t>
+          <t>B01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -728,7 +863,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9325</v>
+        <v>2381</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -737,32 +872,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>منذ 15 عاماً.. 4 حروب اندلعت بين الفلسطينيين والإسرائيليين</t>
+          <t>🔴 أعلن مصدر طبي إسرائيلي السبت سقوط 70 قتيلا على الأقل في إسرائيل في عمليات التوغل التي نفذتها #حركة_حماس، فيما قتل 198 فلسطينيا على الأقل في #غزة بغارات جوية على القطاع.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15 years ago... 4 wars broke out between Palestinians and Israelis</t>
+          <t>🔴 An Israeli medical source announced on Saturday that at least 70 people were killed in Israel in the incursions carried out by #Hamas, while at least 198 Palestinians were killed in #Gaza in air strikes on the Strip.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>منذ 15 عاماً.. 4 حروب اندلعت بين الفلسطينيين والإسرائيليين</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>🔴 أعلن مصدر طبي إسرائيلي السبت سقوط 70 قتيلا على الأقل في إسرائيل في عمليات التوغل التي نفذتها #حركة_حماس، فيما قتل 198 فلسطينيا على الأقل في #غزة بغارات جوية على القطاع.</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Unbiased</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>15 years ago... 4 wars[negative] broke out[negative] between Palestinians and Israelis</t>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>An Israeli medical source announced on Saturday that at least 70 people were killed in Israel in the incursions carried out by #Hamas, while at least 198 Palestinians were killed in #Gaza in air strikes on the Strip.</t>
         </is>
       </c>
     </row>
